--- a/medicine/Enfance/Nicole_Claveloux/Nicole_Claveloux.xlsx
+++ b/medicine/Enfance/Nicole_Claveloux/Nicole_Claveloux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicole Claveloux, née le 23 juin 1940 à Saint-Étienne, est une artiste peintre, illustratrice et auteure de bande dessinée française.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études à l'école des beaux-arts de Saint-Étienne, Nicole Claveloux est, avec Bernard Bonhomme, le Suisse Étienne Delessert et Philippe Corentin l'une des premières françaises à travailler pour l'éditeur Harlin Quist pour des ouvrages comme Le Voyage extravagant de Hugo Brisefer (1967), texte de François Ruy-Vidal ; The Bright Red Porcupine (1968), texte de Tony Cavin ; La Forêt des lilas (1969), de la comtesse de Ségur ; The Teletrips of Alala (1970), texte de Guy Monreal.
 L'influence de l'Allemand Heinz Edelmann (directeur artistique du film d'animation Yellow Submarine de George Dunning) est notable à travers son graphisme et ses dégradés de couleurs délavées. Son usage de la perspective et des incrustations dans l'image s'inscrit dans l'esthétique pop des années 1960. L'influence du Push Pin Studios (en) américain est aussi perceptible.
-Elle crée Grabote pour le magazine Okapi en 1973[1], puis Louise XIV et Cactus acide et Beurre fondu, des personnages irrévérencieux et grimaçants dans un monde en perpétuelle transformation.
-Dans les années 1970, loin de se cantonner à l'illustration de jeunesse d'avant-garde, comme celle d'Alice au pays des merveilles (1974), elle participe aux revues pour adultes Métal hurlant, Charlie Mensuel et Ah ! Nana, autour d'une équipe féminine. Ah ! Nana et Les Humanoïdes Associés publient deux albums surprenants scénarisés par Édith Zha, La Main verte (1978)[2] et Morte saison (1979). Toujours aux Humanoïdes Associés paraît en 1980 un recueil de bandes dessinées de Nicole Claveloux, Le petit légume qui rêvait d'être une panthère, dont elle scénarise la plupart des récits.
-Elle reçoit en 1975 la Plaque d'Or de la Biennale d'illustration de Bratislava (BIB)[3], pour ses illustrations de Les aventures d'Alice au Pays des Merveilles (texte de Lewis Carroll).
+Elle crée Grabote pour le magazine Okapi en 1973, puis Louise XIV et Cactus acide et Beurre fondu, des personnages irrévérencieux et grimaçants dans un monde en perpétuelle transformation.
+Dans les années 1970, loin de se cantonner à l'illustration de jeunesse d'avant-garde, comme celle d'Alice au pays des merveilles (1974), elle participe aux revues pour adultes Métal hurlant, Charlie Mensuel et Ah ! Nana, autour d'une équipe féminine. Ah ! Nana et Les Humanoïdes Associés publient deux albums surprenants scénarisés par Édith Zha, La Main verte (1978) et Morte saison (1979). Toujours aux Humanoïdes Associés paraît en 1980 un recueil de bandes dessinées de Nicole Claveloux, Le petit légume qui rêvait d'être une panthère, dont elle scénarise la plupart des récits.
+Elle reçoit en 1975 la Plaque d'Or de la Biennale d'illustration de Bratislava (BIB), pour ses illustrations de Les aventures d'Alice au Pays des Merveilles (texte de Lewis Carroll).
 Elle a beaucoup travaillé en collaboration avec Bernard Bonhomme et Christian Bruel (L'Heure des parents, Nours, Pour de rire, La Belle et la Bête, Toujours devant). Elle a réalisé en solo Quel genre de bisous ?, Tout est bon dans le bébé, La Ballade des bigorneaux, Professeur Totem et docteur Tabou. Dans les années 2000, elle illustre Les Enquêtes de Mister Bonflair de Claire Clément.
 Elle a également réalisé trois livres érotiques illustrés : Morceaux choisis de la Belle et la Bête (Eden Productions) en 2003, Confessions d'un monte-en-l'air en 2007, et Contes de la Fève et du Gland en 2010 (Éditions Folies d'Encre).
 </t>
@@ -548,7 +562,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Guy Monréal, illustrations de Nicole Claveloux, Alala : les télémorphoses, Les livres d’Harlin Quist, 1970.
 Jacqueline Held, illustrations de Nicole Claveloux, Bernard Bonhomme et Maurice Garnier, Le Chat de Simulombula, Les livres d’Harlin Quist, 1971.
@@ -600,7 +616,7 @@
 Edgar Allan Poe, illustrations de Nicole Claveloux, Double assassinat dans la rue Morgue; La lettre volée, Gallimard jeunesse, 1998
 Géraldine Richelson, illustrations de Nicole Claveloux, Qu'est-ce qu'un enfant?, Les Livres d'Harlin Quist, 1998
 Illustrations de Christophe Caron, Lionel Le Néounaic, Nicole Claveloux, Joëlle Jolivet, 101 chansons de toujours: pour se promener, faire la fête, écouter des histoires et s'endormir tout doucement, Bayard jeunesse, 1998
-Christian Bruel, illustrations de Nicole Claveloux, Alboum[4], Être, 1999
+Christian Bruel, illustrations de Nicole Claveloux, Alboum, Être, 1999
 Guillemette Mounier, illustrations de Nicole Claveloux, Les sorcières s'en vont en guerre, Bayard jeunesse
 Nicole Claveloux, Espèces de poux, Être
 Christian Bruel et Nicole Claveloux, Nours, Être, 2000 ; rééd. Thierry Magnier, 2014
@@ -662,19 +678,21 @@
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1974 : (international) « Hightly Commended Illustrators »[5], par l' IBBY, pour l'ensemble de son œuvre
-1975 :  Plaque d'Or de la Biennale d'illustration de Bratislava (BIB)[3] , pour ses illustrations de Les aventures d'Alice au Pays des Merveilles (texte de Lewis Carroll).
-1999 : Prix Sorcières[6] pour Alboum, avec Christian Bruel
-2000 : Prix Pitchou[7] pour Alboum', avec Christian Bruel
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1974 : (international) « Hightly Commended Illustrators », par l' IBBY, pour l'ensemble de son œuvre
+1975 :  Plaque d'Or de la Biennale d'illustration de Bratislava (BIB) , pour ses illustrations de Les aventures d'Alice au Pays des Merveilles (texte de Lewis Carroll).
+1999 : Prix Sorcières pour Alboum, avec Christian Bruel
+2000 : Prix Pitchou pour Alboum', avec Christian Bruel
 2004 :
- Prix Cécile-Gagnon[8] pour Mon Gugus à moi, texte de Francine P. Caron
-(international) « Honour List »[9] de l' IBBY, Catégorie Illustration, pour La Belle et la Bête (texte de Leprince de Beaumont)
+ Prix Cécile-Gagnon pour Mon Gugus à moi, texte de Francine P. Caron
+(international) « Honour List » de l' IBBY, Catégorie Illustration, pour La Belle et la Bête (texte de Leprince de Beaumont)
 2020 :
-Prix du patrimoine du Festival d'Angoulême 2020, avec Édith Zha, pour La Main Verte et autres récits (éditions Cornélius)[10] ;
-Fauve d'honneur Festival d'Angoulême 2020[11] ;
-Prix Artémisia du matrimoine, avec Édith Zha, pour La Main Verte et autres récits[12].</t>
+Prix du patrimoine du Festival d'Angoulême 2020, avec Édith Zha, pour La Main Verte et autres récits (éditions Cornélius) ;
+Fauve d'honneur Festival d'Angoulême 2020 ;
+Prix Artémisia du matrimoine, avec Édith Zha, pour La Main Verte et autres récits.</t>
         </is>
       </c>
     </row>
